--- a/data/financial_statements/soci/HES.xlsx
+++ b/data/financial_statements/soci/HES.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,1062 +608,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>3157000000</v>
+        <v>3054000000</v>
       </c>
       <c r="C2">
-        <v>2988000000</v>
+        <v>2957000000</v>
       </c>
       <c r="D2">
-        <v>2371000000</v>
+        <v>3118000000</v>
       </c>
       <c r="E2">
-        <v>2255000000</v>
+        <v>2405000000</v>
       </c>
       <c r="F2">
-        <v>1811000000</v>
+        <v>2301000000</v>
       </c>
       <c r="G2">
+        <v>1823000000</v>
+      </c>
+      <c r="H2">
         <v>1598000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1919000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1417000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1176000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>842000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1369000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1699000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1515000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1697000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1599000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1682000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1828000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1566000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1390000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1366000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1644000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1202000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1254000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1304000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1196000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1269000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>993000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1462000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1689000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1935000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1550000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2557000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2678000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2829000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2673000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2722000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2720000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3069000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>6106000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.7432</v>
+        <v>0.3272</v>
       </c>
       <c r="C3">
-        <v>0.8698</v>
+        <v>0.6221</v>
       </c>
       <c r="D3">
-        <v>0.2355</v>
+        <v>0.9512</v>
       </c>
       <c r="E3">
-        <v>0.5914</v>
+        <v>0.2533</v>
       </c>
       <c r="F3">
-        <v>0.54</v>
+        <v>0.6239</v>
       </c>
       <c r="G3">
+        <v>0.5502</v>
+      </c>
+      <c r="H3">
         <v>0.8979</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.4018</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.166</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.2238</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.5038</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.1438</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0101</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.1712</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0837</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1504</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.2313</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1119</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.3028</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1085</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0475</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.3746</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.0528</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.2628</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.1081</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.2919</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.3442</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.3594</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.4282</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.3693</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.316</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.4201</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.0606</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0154</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.07820000000000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.5622</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.07820000000000001</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.1146</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0767</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1.1084</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>1981000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1686000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1430000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1475000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1277000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1108000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1245000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1169000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1142000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>900000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1441000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1534000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>222000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>277000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>189000000</v>
-      </c>
-      <c r="AD4">
-        <v>356000000</v>
       </c>
       <c r="AE4">
         <v>356000000</v>
       </c>
       <c r="AF4">
+        <v>356000000</v>
+      </c>
+      <c r="AG4">
         <v>278000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>482000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>423000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>421000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>393000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>461000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>375000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>421000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>3054000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>3157000000</v>
+        <v>3054000000</v>
       </c>
       <c r="C5">
-        <v>2988000000</v>
+        <v>976000000</v>
       </c>
       <c r="D5">
-        <v>2371000000</v>
+        <v>1432000000</v>
       </c>
       <c r="E5">
+        <v>975000000</v>
+      </c>
+      <c r="F5">
+        <v>826000000</v>
+      </c>
+      <c r="G5">
+        <v>546000000</v>
+      </c>
+      <c r="H5">
+        <v>1598000000</v>
+      </c>
+      <c r="I5">
+        <v>1919000000</v>
+      </c>
+      <c r="J5">
+        <v>1417000000</v>
+      </c>
+      <c r="K5">
+        <v>1176000000</v>
+      </c>
+      <c r="L5">
+        <v>842000000</v>
+      </c>
+      <c r="M5">
+        <v>1369000000</v>
+      </c>
+      <c r="N5">
+        <v>1699000000</v>
+      </c>
+      <c r="O5">
+        <v>1515000000</v>
+      </c>
+      <c r="P5">
+        <v>1697000000</v>
+      </c>
+      <c r="Q5">
+        <v>1599000000</v>
+      </c>
+      <c r="R5">
+        <v>1682000000</v>
+      </c>
+      <c r="S5">
+        <v>1828000000</v>
+      </c>
+      <c r="T5">
+        <v>1566000000</v>
+      </c>
+      <c r="U5">
+        <v>1390000000</v>
+      </c>
+      <c r="V5">
+        <v>1366000000</v>
+      </c>
+      <c r="W5">
+        <v>1644000000</v>
+      </c>
+      <c r="X5">
+        <v>1202000000</v>
+      </c>
+      <c r="Y5">
+        <v>1254000000</v>
+      </c>
+      <c r="Z5">
+        <v>1304000000</v>
+      </c>
+      <c r="AA5">
+        <v>974000000</v>
+      </c>
+      <c r="AB5">
+        <v>992000000</v>
+      </c>
+      <c r="AC5">
+        <v>804000000</v>
+      </c>
+      <c r="AD5">
+        <v>1462000000</v>
+      </c>
+      <c r="AE5">
+        <v>1333000000</v>
+      </c>
+      <c r="AF5">
+        <v>1579000000</v>
+      </c>
+      <c r="AG5">
+        <v>1272000000</v>
+      </c>
+      <c r="AH5">
+        <v>2075000000</v>
+      </c>
+      <c r="AI5">
         <v>2255000000</v>
       </c>
-      <c r="F5">
-        <v>1811000000</v>
-      </c>
-      <c r="G5">
-        <v>1598000000</v>
-      </c>
-      <c r="H5">
-        <v>1919000000</v>
-      </c>
-      <c r="I5">
-        <v>1417000000</v>
-      </c>
-      <c r="J5">
-        <v>1176000000</v>
-      </c>
-      <c r="K5">
-        <v>842000000</v>
-      </c>
-      <c r="L5">
-        <v>1369000000</v>
-      </c>
-      <c r="M5">
-        <v>1699000000</v>
-      </c>
-      <c r="N5">
-        <v>1515000000</v>
-      </c>
-      <c r="O5">
-        <v>1697000000</v>
-      </c>
-      <c r="P5">
-        <v>1599000000</v>
-      </c>
-      <c r="Q5">
-        <v>1682000000</v>
-      </c>
-      <c r="R5">
-        <v>1828000000</v>
-      </c>
-      <c r="S5">
-        <v>1566000000</v>
-      </c>
-      <c r="T5">
-        <v>1390000000</v>
-      </c>
-      <c r="U5">
-        <v>1366000000</v>
-      </c>
-      <c r="V5">
-        <v>1644000000</v>
-      </c>
-      <c r="W5">
-        <v>1202000000</v>
-      </c>
-      <c r="X5">
-        <v>1254000000</v>
-      </c>
-      <c r="Y5">
-        <v>1304000000</v>
-      </c>
-      <c r="Z5">
-        <v>974000000</v>
-      </c>
-      <c r="AA5">
-        <v>992000000</v>
-      </c>
-      <c r="AB5">
-        <v>804000000</v>
-      </c>
-      <c r="AC5">
-        <v>1462000000</v>
-      </c>
-      <c r="AD5">
-        <v>1333000000</v>
-      </c>
-      <c r="AE5">
-        <v>1579000000</v>
-      </c>
-      <c r="AF5">
-        <v>1272000000</v>
-      </c>
-      <c r="AG5">
-        <v>2075000000</v>
-      </c>
-      <c r="AH5">
-        <v>2255000000</v>
-      </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2408000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2280000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2261000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2345000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2648000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>3052000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>40000000</v>
+      </c>
+      <c r="C6">
         <v>58000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>33000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>43000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>45000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>36000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>48000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>33000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>60000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>71000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>31000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>189000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>106000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>50000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>43000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>34000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>91000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>169000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>62000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>40000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>356000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>41000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>52000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>58000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1033000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>78000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>199000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>132000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>378000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>144000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>90000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>269000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>171000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>90000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>460000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>119000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>458000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>154000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>200000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>219000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1377000000</v>
+      </c>
+      <c r="C7">
         <v>1561000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1361000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1166000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1209000000</v>
       </c>
-      <c r="F7">
-        <v>973000000</v>
-      </c>
       <c r="G7">
+        <v>76000000</v>
+      </c>
+      <c r="H7">
         <v>765000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>914000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>758000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>647000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>455000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>825000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1108000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>881000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>897000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>800000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>898000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>947000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>909000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>795000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>986000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>829000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>752000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>684000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1832000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>554000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>589000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>553000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2056000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>656000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>699000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>689000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>742000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>719000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>766000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>670000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>265000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>738000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>803000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1098000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1133000000</v>
+      </c>
+      <c r="C8">
         <v>1013000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1203000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>825000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>689000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>453000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>253000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>576000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>163000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-60000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-153000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-2332000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>31000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>40000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>263000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>267000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>160000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>223000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>151000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>138000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-2322000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-2488000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-343000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-225000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-1634000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-469000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-593000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-749000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-2122000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-455000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-623000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-642000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>287000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>608000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>397000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>765000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-11000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>772000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1031000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1046000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>124000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>120000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>127000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>117000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>125000000</v>
-      </c>
-      <c r="G9">
-        <v>118000000</v>
       </c>
       <c r="H9">
         <v>118000000</v>
       </c>
       <c r="I9">
+        <v>118000000</v>
+      </c>
+      <c r="J9">
         <v>128000000</v>
-      </c>
-      <c r="J9">
-        <v>118000000</v>
       </c>
       <c r="K9">
         <v>118000000</v>
       </c>
       <c r="L9">
+        <v>118000000</v>
+      </c>
+      <c r="M9">
         <v>108000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>94000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>124000000</v>
+      </c>
+      <c r="C10">
         <v>125000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>121000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>123000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>121000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>125000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>118000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>117000000</v>
-      </c>
-      <c r="I10">
-        <v>118000000</v>
       </c>
       <c r="J10">
         <v>118000000</v>
       </c>
       <c r="K10">
+        <v>118000000</v>
+      </c>
+      <c r="L10">
         <v>119000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>113000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>95000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>90000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>97000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>98000000</v>
-      </c>
-      <c r="Q10">
-        <v>99000000</v>
       </c>
       <c r="R10">
         <v>99000000</v>
       </c>
       <c r="S10">
+        <v>99000000</v>
+      </c>
+      <c r="T10">
         <v>98000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>103000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>80000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>79000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>82000000</v>
-      </c>
-      <c r="X10">
-        <v>84000000</v>
       </c>
       <c r="Y10">
         <v>84000000</v>
@@ -1558,1348 +1693,1372 @@
         <v>84000000</v>
       </c>
       <c r="AA10">
-        <v>85000000</v>
+        <v>84000000</v>
       </c>
       <c r="AB10">
         <v>85000000</v>
       </c>
       <c r="AC10">
+        <v>85000000</v>
+      </c>
+      <c r="AD10">
         <v>86000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>84000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>86000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>85000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>82000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>75000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>85000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>81000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>97000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>86000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>117000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>106000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>-125000000</v>
+        <v>-124000000</v>
       </c>
       <c r="C11">
-        <v>-121000000</v>
+        <v>231000000</v>
       </c>
       <c r="D11">
-        <v>-123000000</v>
+        <v>-145000000</v>
       </c>
       <c r="E11">
-        <v>-121000000</v>
+        <v>-40000000</v>
       </c>
       <c r="F11">
-        <v>-125000000</v>
+        <v>-37000000</v>
       </c>
       <c r="G11">
+        <v>-9000000</v>
+      </c>
+      <c r="H11">
         <v>-118000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-117000000</v>
-      </c>
-      <c r="I11">
-        <v>-118000000</v>
       </c>
       <c r="J11">
         <v>-118000000</v>
       </c>
       <c r="K11">
+        <v>-118000000</v>
+      </c>
+      <c r="L11">
         <v>-119000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-113000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-95000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-90000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-97000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-98000000</v>
-      </c>
-      <c r="Q11">
-        <v>-99000000</v>
       </c>
       <c r="R11">
         <v>-99000000</v>
       </c>
       <c r="S11">
+        <v>-99000000</v>
+      </c>
+      <c r="T11">
         <v>-124000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-130000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-155000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-79000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-82000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-84000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-75000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-164000000</v>
-      </c>
-      <c r="AA11">
-        <v>-85000000</v>
       </c>
       <c r="AB11">
         <v>-85000000</v>
       </c>
       <c r="AC11">
+        <v>-85000000</v>
+      </c>
+      <c r="AD11">
         <v>-161000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-84000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-86000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-85000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-111000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-17000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>669000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-162000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>289000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-92000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>976000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>548000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1009000000</v>
+      </c>
+      <c r="C12">
         <v>888000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1082000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>702000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>568000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>328000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>135000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>459000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>45000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-178000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-272000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-2445000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-64000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-50000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>166000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>169000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>61000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>124000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>27000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>8000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-2477000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-2567000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-425000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-309000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-1709000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-633000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-678000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-834000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-2283000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-539000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-709000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-727000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>176000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>591000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1066000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>603000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>278000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>680000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2007000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1594000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>300000000</v>
+      </c>
+      <c r="C13">
         <v>282000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>328000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>197000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>212000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>143000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>122000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>123000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>72000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>5000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-9000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-79000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>119000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>116000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>132000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>94000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>27000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>121000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>114000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>73000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>158000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-1974000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-8000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-13000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>3189000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-316000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-305000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-346000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-492000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-300000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-156000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-351000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>181000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>232000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>92000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>239000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-633000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>324000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>407000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>451000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>709000000</v>
+      </c>
+      <c r="C14">
         <v>606000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>754000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>505000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>356000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>185000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>13000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>336000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-27000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-183000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-263000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-2366000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-183000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-166000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>34000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>75000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>34000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-87000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-65000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-2635000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-593000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-417000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-296000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-4898000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-317000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-373000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-488000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-1791000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-239000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-553000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-376000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-5000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>359000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>974000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>364000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>911000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>356000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1600000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1143000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>515000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>115000000</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>4000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>12000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>11000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>12000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>11000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>12000000</v>
-      </c>
-      <c r="V15">
-        <v>11000000</v>
       </c>
       <c r="W15">
         <v>11000000</v>
       </c>
       <c r="X15">
+        <v>11000000</v>
+      </c>
+      <c r="Y15">
         <v>12000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>11000000</v>
-      </c>
-      <c r="Z15">
-        <v>12000000</v>
       </c>
       <c r="AA15">
         <v>12000000</v>
       </c>
       <c r="AB15">
+        <v>12000000</v>
+      </c>
+      <c r="AC15">
         <v>6000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>85000000</v>
+      </c>
+      <c r="C16">
         <v>91000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>87000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>88000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>91000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>70000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>86000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>84000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>70000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>60000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>57000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>67000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>39000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>46000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>40000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>43000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>38000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>45000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>43000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>41000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>42000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>31000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>32000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>28000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-6000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>22000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>19000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>21000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>22000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>27000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>22000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-1000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>35000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-10000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-2000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>185000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-3000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>624000000</v>
+      </c>
+      <c r="C17">
         <v>515000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>667000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>417000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>265000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>115000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-73000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>252000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-97000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-243000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-320000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-2433000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-222000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-212000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-6000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>28000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-16000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-53000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-142000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-117000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-2689000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-635000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-460000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-336000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-4903000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-351000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-404000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-515000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-1821000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-279000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-567000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-389000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-8000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1008000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>931000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>386000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1925000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>420000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1431000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1276000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>1.67</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.15</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.34</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.85</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.37</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.24</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.82</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.32</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.8</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-1.05</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-8</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-0.73</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-0.68</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-0.02</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.09</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-0.05</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.14</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-0.48</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-0.38</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-8.57</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-2.02</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-1.46</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-1.07</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-15.65</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-1.12</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-1.29</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-1.72</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-6.43</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-0.98</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-1.99</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-1.37</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-0.03</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>3.31</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2.96</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1.2</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>5.76</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1.22</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4.16</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>3.72</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>1.67</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2.15</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.34</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.85</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.37</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.24</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.82</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.32</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.8</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-1.05</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-8</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-0.73</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-0.68</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-0.02</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.09</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-0.05</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.14</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-0.48</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-0.38</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-8.57</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-2.02</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-1.46</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-1.07</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-15.65</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-1.12</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-1.29</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-1.72</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-6.43</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-0.98</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-1.99</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-1.37</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-0.03</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>3.31</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2.96</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1.2</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>5.76</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1.22</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>4.16</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>3.72</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>307600000</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C20">
-        <v>309700000</v>
+        <v>308000000</v>
       </c>
       <c r="D20">
-        <v>308900000</v>
+        <v>310000000</v>
       </c>
       <c r="E20">
-        <v>307400000</v>
+        <v>309000000</v>
       </c>
       <c r="F20">
-        <v>308100000</v>
+        <v>310000000</v>
       </c>
       <c r="G20">
+        <v>308000000</v>
+      </c>
+      <c r="H20">
         <v>307500000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>305800000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>304800000</v>
-      </c>
-      <c r="J20">
-        <v>305000000</v>
       </c>
       <c r="K20">
         <v>305000000</v>
       </c>
       <c r="L20">
+        <v>305000000</v>
+      </c>
+      <c r="M20">
         <v>304000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>301200000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>302500000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>302200000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>297400000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>298200000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>294300000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>297500000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>309500000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>314100000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>314500000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>314400000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>313900000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>309900000</v>
-      </c>
-      <c r="Z20">
-        <v>313200000</v>
       </c>
       <c r="AA20">
         <v>313200000</v>
       </c>
       <c r="AB20">
+        <v>313200000</v>
+      </c>
+      <c r="AC20">
         <v>299800000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>283600000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>283500000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>284300000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>283500000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>303700000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>300700000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>309700000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>318100000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>336600000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>339000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>340100000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>339200000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>308900000</v>
+        <v>308100000</v>
       </c>
       <c r="C21">
-        <v>310900000</v>
+        <v>309000000</v>
       </c>
       <c r="D21">
-        <v>310400000</v>
+        <v>311000000</v>
       </c>
       <c r="E21">
-        <v>309300000</v>
+        <v>310000000</v>
       </c>
       <c r="F21">
-        <v>309900000</v>
+        <v>310000000</v>
       </c>
       <c r="G21">
+        <v>310000000</v>
+      </c>
+      <c r="H21">
         <v>307500000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>307800000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>304800000</v>
-      </c>
-      <c r="J21">
-        <v>305000000</v>
       </c>
       <c r="K21">
         <v>305000000</v>
       </c>
       <c r="L21">
+        <v>305000000</v>
+      </c>
+      <c r="M21">
         <v>304000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>301200000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>302500000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>302200000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>299700000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>298200000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>294300000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>297500000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>309500000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>314100000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>314500000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>314400000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>313900000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>309900000</v>
-      </c>
-      <c r="Z21">
-        <v>313200000</v>
       </c>
       <c r="AA21">
         <v>313200000</v>
       </c>
       <c r="AB21">
+        <v>313200000</v>
+      </c>
+      <c r="AC21">
         <v>299800000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>283600000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>283500000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>284300000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>283500000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>307700000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>305000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>314100000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>322600000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>334300000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>343300000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>344000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>342600000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.3301</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.4593</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.4054</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.359</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.2995</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2956,1879 +3115,1912 @@
         <v>1</v>
       </c>
       <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
         <v>0.8144</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.7817</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.8097</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.7892</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.8159999999999999</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.8206</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.8115</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.842</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.8512</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.853</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.8306</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.8621</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.8628</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.4998</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0.3209</v>
+        <v>0.371</v>
       </c>
       <c r="C23">
-        <v>0.4026</v>
+        <v>0.3426</v>
       </c>
       <c r="D23">
-        <v>0.348</v>
+        <v>0.3858</v>
       </c>
       <c r="E23">
-        <v>0.3055</v>
+        <v>0.343</v>
       </c>
       <c r="F23">
-        <v>0.2501</v>
+        <v>0.2994</v>
       </c>
       <c r="G23">
+        <v>0.2485</v>
+      </c>
+      <c r="H23">
         <v>0.1583</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.3002</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.115</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.051</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-0.1817</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-1.7034</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.0182</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.0264</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.155</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.167</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.0951</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.122</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.0964</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.0993</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-1.6999</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-1.5134</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.2854</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>-0.1794</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-1.2531</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-0.3921</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-0.4673</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-0.7543</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-1.4514</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-0.2694</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-0.322</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-0.4142</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1122</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.227</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1403</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.2862</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-0.004</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.2838</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.3359</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1713</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>0.2813</v>
+        <v>0.3304</v>
       </c>
       <c r="C24">
-        <v>0.3621</v>
+        <v>0.3003</v>
       </c>
       <c r="D24">
-        <v>0.2961</v>
+        <v>0.347</v>
       </c>
       <c r="E24">
-        <v>0.2519</v>
+        <v>0.2919</v>
       </c>
       <c r="F24">
-        <v>0.1811</v>
+        <v>0.2468</v>
       </c>
       <c r="G24">
+        <v>0.1799</v>
+      </c>
+      <c r="H24">
         <v>0.08450000000000001</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.2392</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.0318</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.1514</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-0.323</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-1.786</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-0.0377</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-0.033</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.0978</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.1057</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.0363</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.0678</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.0172</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.0058</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-1.8133</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-1.5614</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.3536</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-0.2464</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-1.3106</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-0.5293</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-0.5343</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-0.8399</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-1.5616</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-0.3191</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-0.3664</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-0.469</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.0688</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.2207</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.3768</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.2256</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.1021</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.25</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.654</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.2611</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>0.1631</v>
+        <v>0.2043</v>
       </c>
       <c r="C25">
-        <v>0.2232</v>
+        <v>0.1742</v>
       </c>
       <c r="D25">
-        <v>0.1759</v>
+        <v>0.2139</v>
       </c>
       <c r="E25">
-        <v>0.1175</v>
+        <v>0.1734</v>
       </c>
       <c r="F25">
-        <v>0.0635</v>
+        <v>0.1152</v>
       </c>
       <c r="G25">
+        <v>0.0631</v>
+      </c>
+      <c r="H25">
         <v>-0.0457</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.1313</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.06850000000000001</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.2066</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-0.38</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-1.7772</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-0.1307</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-0.1399</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-0.0035</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.0175</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-0.0095</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-0.029</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-0.0907</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-0.0842</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-1.9685</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-0.3863</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.3827</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-0.2679</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-3.76</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-0.2935</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-0.3184</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-0.5185999999999999</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-1.2456</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-0.1652</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-0.293</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-0.251</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-0.0031</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.3764</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.3291</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.1444</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.7072000000000001</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.1544</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.4663</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.209</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1484000000</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>1594000000</v>
+        <v>1338000000</v>
       </c>
       <c r="D26">
+        <v>1728000000</v>
+      </c>
+      <c r="E26">
+        <v>1202000000</v>
+      </c>
+      <c r="F26">
+        <v>1138000000</v>
+      </c>
+      <c r="G26">
+        <v>821000000</v>
+      </c>
+      <c r="H26">
+        <v>638000000</v>
+      </c>
+      <c r="I26">
+        <v>972000000</v>
+      </c>
+      <c r="J26">
+        <v>649000000</v>
+      </c>
+      <c r="K26">
+        <v>458000000</v>
+      </c>
+      <c r="L26">
+        <v>356000000</v>
+      </c>
+      <c r="M26">
+        <v>-1771000000</v>
+      </c>
+      <c r="N26">
+        <v>617000000</v>
+      </c>
+      <c r="O26">
+        <v>584000000</v>
+      </c>
+      <c r="P26">
+        <v>757000000</v>
+      </c>
+      <c r="Q26">
+        <v>765000000</v>
+      </c>
+      <c r="R26">
+        <v>693000000</v>
+      </c>
+      <c r="S26">
+        <v>712000000</v>
+      </c>
+      <c r="T26">
+        <v>595000000</v>
+      </c>
+      <c r="U26">
+        <v>555000000</v>
+      </c>
+      <c r="V26">
+        <v>-1676000000</v>
+      </c>
+      <c r="W26">
+        <v>-1729000000</v>
+      </c>
+      <c r="X26">
+        <v>398000000</v>
+      </c>
+      <c r="Y26">
+        <v>512000000</v>
+      </c>
+      <c r="Z26">
+        <v>-866000000</v>
+      </c>
+      <c r="AA26">
+        <v>342000000</v>
+      </c>
+      <c r="AB26">
+        <v>204000000</v>
+      </c>
+      <c r="AC26">
+        <v>119000000</v>
+      </c>
+      <c r="AD26">
+        <v>-1139000000</v>
+      </c>
+      <c r="AE26">
+        <v>533000000</v>
+      </c>
+      <c r="AF26">
+        <v>405000000</v>
+      </c>
+      <c r="AG26">
+        <v>314000000</v>
+      </c>
+      <c r="AH26">
         <v>1162000000</v>
       </c>
-      <c r="E26">
-        <v>1087000000</v>
-      </c>
-      <c r="F26">
-        <v>802000000</v>
-      </c>
-      <c r="G26">
-        <v>638000000</v>
-      </c>
-      <c r="H26">
-        <v>972000000</v>
-      </c>
-      <c r="I26">
-        <v>649000000</v>
-      </c>
-      <c r="J26">
-        <v>458000000</v>
-      </c>
-      <c r="K26">
+      <c r="AI26">
+        <v>1446000000</v>
+      </c>
+      <c r="AJ26">
+        <v>1182000000</v>
+      </c>
+      <c r="AK26">
+        <v>1491000000</v>
+      </c>
+      <c r="AL26">
+        <v>702000000</v>
+      </c>
+      <c r="AM26">
+        <v>1453000000</v>
+      </c>
+      <c r="AN26">
+        <v>1635000000</v>
+      </c>
+      <c r="AO26">
+        <v>1735000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>1133000000</v>
+      </c>
+      <c r="C27">
+        <v>1013000000</v>
+      </c>
+      <c r="D27">
+        <v>1203000000</v>
+      </c>
+      <c r="E27">
+        <v>825000000</v>
+      </c>
+      <c r="F27">
+        <v>689000000</v>
+      </c>
+      <c r="G27">
+        <v>453000000</v>
+      </c>
+      <c r="H27">
+        <v>253000000</v>
+      </c>
+      <c r="I27">
+        <v>576000000</v>
+      </c>
+      <c r="J27">
+        <v>163000000</v>
+      </c>
+      <c r="K27">
+        <v>-60000000</v>
+      </c>
+      <c r="L27">
+        <v>-153000000</v>
+      </c>
+      <c r="M27">
+        <v>-2332000000</v>
+      </c>
+      <c r="N27">
+        <v>31000000</v>
+      </c>
+      <c r="O27">
+        <v>40000000</v>
+      </c>
+      <c r="P27">
+        <v>263000000</v>
+      </c>
+      <c r="Q27">
+        <v>267000000</v>
+      </c>
+      <c r="R27">
+        <v>160000000</v>
+      </c>
+      <c r="S27">
+        <v>223000000</v>
+      </c>
+      <c r="T27">
+        <v>151000000</v>
+      </c>
+      <c r="U27">
+        <v>138000000</v>
+      </c>
+      <c r="V27">
+        <v>-2322000000</v>
+      </c>
+      <c r="W27">
+        <v>-2488000000</v>
+      </c>
+      <c r="X27">
+        <v>-343000000</v>
+      </c>
+      <c r="Y27">
+        <v>-225000000</v>
+      </c>
+      <c r="Z27">
+        <v>-1634000000</v>
+      </c>
+      <c r="AA27">
+        <v>-469000000</v>
+      </c>
+      <c r="AB27">
+        <v>-593000000</v>
+      </c>
+      <c r="AC27">
+        <v>-749000000</v>
+      </c>
+      <c r="AD27">
+        <v>-2122000000</v>
+      </c>
+      <c r="AE27">
+        <v>-455000000</v>
+      </c>
+      <c r="AF27">
+        <v>-623000000</v>
+      </c>
+      <c r="AG27">
+        <v>-642000000</v>
+      </c>
+      <c r="AH27">
+        <v>287000000</v>
+      </c>
+      <c r="AI27">
+        <v>608000000</v>
+      </c>
+      <c r="AJ27">
+        <v>397000000</v>
+      </c>
+      <c r="AK27">
+        <v>765000000</v>
+      </c>
+      <c r="AL27">
+        <v>-11000000</v>
+      </c>
+      <c r="AM27">
+        <v>772000000</v>
+      </c>
+      <c r="AN27">
+        <v>1031000000</v>
+      </c>
+      <c r="AO27">
+        <v>1046000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>709000000</v>
+      </c>
+      <c r="C28">
+        <v>606000000</v>
+      </c>
+      <c r="D28">
+        <v>754000000</v>
+      </c>
+      <c r="E28">
+        <v>505000000</v>
+      </c>
+      <c r="F28">
         <v>356000000</v>
       </c>
-      <c r="L26">
-        <v>-1771000000</v>
-      </c>
-      <c r="M26">
-        <v>617000000</v>
-      </c>
-      <c r="N26">
-        <v>584000000</v>
-      </c>
-      <c r="O26">
-        <v>757000000</v>
-      </c>
-      <c r="P26">
-        <v>765000000</v>
-      </c>
-      <c r="Q26">
-        <v>693000000</v>
-      </c>
-      <c r="R26">
-        <v>712000000</v>
-      </c>
-      <c r="S26">
-        <v>595000000</v>
-      </c>
-      <c r="T26">
-        <v>555000000</v>
-      </c>
-      <c r="U26">
-        <v>-1676000000</v>
-      </c>
-      <c r="V26">
-        <v>-1729000000</v>
-      </c>
-      <c r="W26">
-        <v>398000000</v>
-      </c>
-      <c r="X26">
-        <v>512000000</v>
-      </c>
-      <c r="Y26">
-        <v>-866000000</v>
-      </c>
-      <c r="Z26">
-        <v>342000000</v>
-      </c>
-      <c r="AA26">
-        <v>204000000</v>
-      </c>
-      <c r="AB26">
-        <v>119000000</v>
-      </c>
-      <c r="AC26">
-        <v>-1139000000</v>
-      </c>
-      <c r="AD26">
-        <v>533000000</v>
-      </c>
-      <c r="AE26">
-        <v>405000000</v>
-      </c>
-      <c r="AF26">
-        <v>314000000</v>
-      </c>
-      <c r="AG26">
-        <v>1162000000</v>
-      </c>
-      <c r="AH26">
-        <v>1446000000</v>
-      </c>
-      <c r="AI26">
-        <v>1182000000</v>
-      </c>
-      <c r="AJ26">
-        <v>1491000000</v>
-      </c>
-      <c r="AK26">
-        <v>702000000</v>
-      </c>
-      <c r="AL26">
-        <v>1453000000</v>
-      </c>
-      <c r="AM26">
-        <v>1635000000</v>
-      </c>
-      <c r="AN26">
-        <v>1735000000</v>
+      <c r="G28">
+        <v>185000000</v>
+      </c>
+      <c r="H28">
+        <v>13000000</v>
+      </c>
+      <c r="I28">
+        <v>336000000</v>
+      </c>
+      <c r="J28">
+        <v>-27000000</v>
+      </c>
+      <c r="K28">
+        <v>-183000000</v>
+      </c>
+      <c r="L28">
+        <v>-263000000</v>
+      </c>
+      <c r="M28">
+        <v>-2366000000</v>
+      </c>
+      <c r="N28">
+        <v>-183000000</v>
+      </c>
+      <c r="O28">
+        <v>-166000000</v>
+      </c>
+      <c r="P28">
+        <v>34000000</v>
+      </c>
+      <c r="Q28">
+        <v>75000000</v>
+      </c>
+      <c r="R28">
+        <v>34000000</v>
+      </c>
+      <c r="S28">
+        <v>3000000</v>
+      </c>
+      <c r="T28">
+        <v>-87000000</v>
+      </c>
+      <c r="U28">
+        <v>-65000000</v>
+      </c>
+      <c r="V28">
+        <v>-2635000000</v>
+      </c>
+      <c r="W28">
+        <v>-593000000</v>
+      </c>
+      <c r="X28">
+        <v>-417000000</v>
+      </c>
+      <c r="Y28">
+        <v>-296000000</v>
+      </c>
+      <c r="Z28">
+        <v>-4898000000</v>
+      </c>
+      <c r="AA28">
+        <v>-317000000</v>
+      </c>
+      <c r="AB28">
+        <v>-373000000</v>
+      </c>
+      <c r="AC28">
+        <v>-488000000</v>
+      </c>
+      <c r="AD28">
+        <v>-1791000000</v>
+      </c>
+      <c r="AE28">
+        <v>-239000000</v>
+      </c>
+      <c r="AF28">
+        <v>-553000000</v>
+      </c>
+      <c r="AG28">
+        <v>-376000000</v>
+      </c>
+      <c r="AH28">
+        <v>-5000000</v>
+      </c>
+      <c r="AI28">
+        <v>359000000</v>
+      </c>
+      <c r="AJ28">
+        <v>974000000</v>
+      </c>
+      <c r="AK28">
+        <v>364000000</v>
+      </c>
+      <c r="AL28">
+        <v>911000000</v>
+      </c>
+      <c r="AM28">
+        <v>356000000</v>
+      </c>
+      <c r="AN28">
+        <v>1600000000</v>
+      </c>
+      <c r="AO28">
+        <v>1143000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1013000000</v>
-      </c>
-      <c r="C27">
-        <v>1203000000</v>
-      </c>
-      <c r="D27">
-        <v>825000000</v>
-      </c>
-      <c r="E27">
-        <v>689000000</v>
-      </c>
-      <c r="F27">
-        <v>453000000</v>
-      </c>
-      <c r="G27">
-        <v>253000000</v>
-      </c>
-      <c r="H27">
-        <v>576000000</v>
-      </c>
-      <c r="I27">
-        <v>163000000</v>
-      </c>
-      <c r="J27">
-        <v>-60000000</v>
-      </c>
-      <c r="K27">
-        <v>-153000000</v>
-      </c>
-      <c r="L27">
-        <v>-2332000000</v>
-      </c>
-      <c r="M27">
-        <v>31000000</v>
-      </c>
-      <c r="N27">
-        <v>40000000</v>
-      </c>
-      <c r="O27">
-        <v>263000000</v>
-      </c>
-      <c r="P27">
-        <v>267000000</v>
-      </c>
-      <c r="Q27">
-        <v>160000000</v>
-      </c>
-      <c r="R27">
-        <v>223000000</v>
-      </c>
-      <c r="S27">
-        <v>151000000</v>
-      </c>
-      <c r="T27">
-        <v>138000000</v>
-      </c>
-      <c r="U27">
-        <v>-2322000000</v>
-      </c>
-      <c r="V27">
-        <v>-2488000000</v>
-      </c>
-      <c r="W27">
-        <v>-343000000</v>
-      </c>
-      <c r="X27">
-        <v>-225000000</v>
-      </c>
-      <c r="Y27">
-        <v>-1634000000</v>
-      </c>
-      <c r="Z27">
-        <v>-469000000</v>
-      </c>
-      <c r="AA27">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD29">
+        <v>-8000000</v>
+      </c>
+      <c r="AE29">
+        <v>-13000000</v>
+      </c>
+      <c r="AF29">
+        <v>-14000000</v>
+      </c>
+      <c r="AG29">
+        <v>-13000000</v>
+      </c>
+      <c r="AH29">
+        <v>-2000000</v>
+      </c>
+      <c r="AI29">
+        <v>671000000</v>
+      </c>
+      <c r="AJ29">
+        <v>-44000000</v>
+      </c>
+      <c r="AK29">
+        <v>57000000</v>
+      </c>
+      <c r="AL29">
+        <v>1004000000</v>
+      </c>
+      <c r="AM29">
+        <v>62000000</v>
+      </c>
+      <c r="AN29">
+        <v>16000000</v>
+      </c>
+      <c r="AO29">
+        <v>130000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>709000000</v>
+      </c>
+      <c r="C30">
+        <v>606000000</v>
+      </c>
+      <c r="D30">
+        <v>754000000</v>
+      </c>
+      <c r="E30">
+        <v>505000000</v>
+      </c>
+      <c r="F30">
+        <v>356000000</v>
+      </c>
+      <c r="G30">
+        <v>185000000</v>
+      </c>
+      <c r="H30">
+        <v>13000000</v>
+      </c>
+      <c r="I30">
+        <v>336000000</v>
+      </c>
+      <c r="J30">
+        <v>-27000000</v>
+      </c>
+      <c r="K30">
+        <v>-183000000</v>
+      </c>
+      <c r="L30">
+        <v>-263000000</v>
+      </c>
+      <c r="M30">
+        <v>-2366000000</v>
+      </c>
+      <c r="N30">
+        <v>-183000000</v>
+      </c>
+      <c r="O30">
+        <v>-166000000</v>
+      </c>
+      <c r="P30">
+        <v>34000000</v>
+      </c>
+      <c r="Q30">
+        <v>75000000</v>
+      </c>
+      <c r="R30">
+        <v>34000000</v>
+      </c>
+      <c r="S30">
+        <v>3000000</v>
+      </c>
+      <c r="T30">
+        <v>-87000000</v>
+      </c>
+      <c r="U30">
+        <v>-65000000</v>
+      </c>
+      <c r="V30">
+        <v>-2635000000</v>
+      </c>
+      <c r="W30">
         <v>-593000000</v>
       </c>
-      <c r="AB27">
-        <v>-749000000</v>
-      </c>
-      <c r="AC27">
-        <v>-2122000000</v>
-      </c>
-      <c r="AD27">
-        <v>-455000000</v>
-      </c>
-      <c r="AE27">
-        <v>-623000000</v>
-      </c>
-      <c r="AF27">
-        <v>-642000000</v>
-      </c>
-      <c r="AG27">
-        <v>287000000</v>
-      </c>
-      <c r="AH27">
-        <v>608000000</v>
-      </c>
-      <c r="AI27">
-        <v>397000000</v>
-      </c>
-      <c r="AJ27">
-        <v>765000000</v>
-      </c>
-      <c r="AK27">
-        <v>-11000000</v>
-      </c>
-      <c r="AL27">
-        <v>772000000</v>
-      </c>
-      <c r="AM27">
-        <v>1031000000</v>
-      </c>
-      <c r="AN27">
-        <v>1046000000</v>
+      <c r="X30">
+        <v>-417000000</v>
+      </c>
+      <c r="Y30">
+        <v>-296000000</v>
+      </c>
+      <c r="Z30">
+        <v>-4898000000</v>
+      </c>
+      <c r="AA30">
+        <v>-317000000</v>
+      </c>
+      <c r="AB30">
+        <v>-373000000</v>
+      </c>
+      <c r="AC30">
+        <v>-488000000</v>
+      </c>
+      <c r="AD30">
+        <v>-1799000000</v>
+      </c>
+      <c r="AE30">
+        <v>-252000000</v>
+      </c>
+      <c r="AF30">
+        <v>-567000000</v>
+      </c>
+      <c r="AG30">
+        <v>-389000000</v>
+      </c>
+      <c r="AH30">
+        <v>-7000000</v>
+      </c>
+      <c r="AI30">
+        <v>1030000000</v>
+      </c>
+      <c r="AJ30">
+        <v>930000000</v>
+      </c>
+      <c r="AK30">
+        <v>421000000</v>
+      </c>
+      <c r="AL30">
+        <v>1915000000</v>
+      </c>
+      <c r="AM30">
+        <v>418000000</v>
+      </c>
+      <c r="AN30">
+        <v>1616000000</v>
+      </c>
+      <c r="AO30">
+        <v>1273000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>606000000</v>
-      </c>
-      <c r="C28">
-        <v>754000000</v>
-      </c>
-      <c r="D28">
-        <v>505000000</v>
-      </c>
-      <c r="E28">
-        <v>356000000</v>
-      </c>
-      <c r="F28">
-        <v>185000000</v>
-      </c>
-      <c r="G28">
-        <v>13000000</v>
-      </c>
-      <c r="H28">
-        <v>336000000</v>
-      </c>
-      <c r="I28">
-        <v>-27000000</v>
-      </c>
-      <c r="J28">
-        <v>-183000000</v>
-      </c>
-      <c r="K28">
-        <v>-263000000</v>
-      </c>
-      <c r="L28">
-        <v>-2366000000</v>
-      </c>
-      <c r="M28">
-        <v>-183000000</v>
-      </c>
-      <c r="N28">
-        <v>-166000000</v>
-      </c>
-      <c r="O28">
-        <v>34000000</v>
-      </c>
-      <c r="P28">
-        <v>75000000</v>
-      </c>
-      <c r="Q28">
-        <v>34000000</v>
-      </c>
-      <c r="R28">
-        <v>3000000</v>
-      </c>
-      <c r="S28">
-        <v>-87000000</v>
-      </c>
-      <c r="T28">
-        <v>-65000000</v>
-      </c>
-      <c r="U28">
-        <v>-2635000000</v>
-      </c>
-      <c r="V28">
-        <v>-593000000</v>
-      </c>
-      <c r="W28">
-        <v>-417000000</v>
-      </c>
-      <c r="X28">
-        <v>-296000000</v>
-      </c>
-      <c r="Y28">
-        <v>-4898000000</v>
-      </c>
-      <c r="Z28">
-        <v>-317000000</v>
-      </c>
-      <c r="AA28">
-        <v>-373000000</v>
-      </c>
-      <c r="AB28">
-        <v>-488000000</v>
-      </c>
-      <c r="AC28">
-        <v>-1791000000</v>
-      </c>
-      <c r="AD28">
-        <v>-239000000</v>
-      </c>
-      <c r="AE28">
-        <v>-553000000</v>
-      </c>
-      <c r="AF28">
-        <v>-376000000</v>
-      </c>
-      <c r="AG28">
-        <v>-5000000</v>
-      </c>
-      <c r="AH28">
-        <v>359000000</v>
-      </c>
-      <c r="AI28">
-        <v>974000000</v>
-      </c>
-      <c r="AJ28">
-        <v>364000000</v>
-      </c>
-      <c r="AK28">
-        <v>911000000</v>
-      </c>
-      <c r="AL28">
-        <v>356000000</v>
-      </c>
-      <c r="AM28">
-        <v>1600000000</v>
-      </c>
-      <c r="AN28">
-        <v>1143000000</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>1.9701</v>
+      </c>
+      <c r="D31">
+        <v>2.4346</v>
+      </c>
+      <c r="E31">
+        <v>1.6348</v>
+      </c>
+      <c r="F31">
+        <v>1.1538</v>
+      </c>
+      <c r="G31">
+        <v>0.6005</v>
+      </c>
+      <c r="H31">
+        <v>0.0423</v>
+      </c>
+      <c r="I31">
+        <v>1.0988</v>
+      </c>
+      <c r="J31">
+        <v>-0.06909999999999999</v>
+      </c>
+      <c r="K31">
+        <v>-0.6</v>
+      </c>
+      <c r="L31">
+        <v>-0.8623</v>
+      </c>
+      <c r="M31">
+        <v>-7.7829</v>
+      </c>
+      <c r="N31">
+        <v>-0.6127</v>
+      </c>
+      <c r="O31">
+        <v>-0.5488</v>
+      </c>
+      <c r="P31">
+        <v>0.1125</v>
+      </c>
+      <c r="Q31">
+        <v>0.2522</v>
+      </c>
+      <c r="R31">
+        <v>0.1066</v>
+      </c>
+      <c r="S31">
+        <v>0.0102</v>
+      </c>
+      <c r="T31">
+        <v>-0.2924</v>
+      </c>
+      <c r="U31">
+        <v>-0.21</v>
+      </c>
+      <c r="V31">
+        <v>-8.392099999999999</v>
+      </c>
+      <c r="W31">
+        <v>-1.8855</v>
+      </c>
+      <c r="X31">
+        <v>-1.3263</v>
+      </c>
+      <c r="Y31">
+        <v>-0.9429999999999999</v>
+      </c>
+      <c r="Z31">
+        <v>-15.7755</v>
+      </c>
+      <c r="AA31">
+        <v>-1.0121</v>
+      </c>
+      <c r="AB31">
+        <v>-1.1909</v>
+      </c>
+      <c r="AC31">
+        <v>-1.6278</v>
+      </c>
+      <c r="AD31">
+        <v>-6.41</v>
+      </c>
+      <c r="AE31">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="AF31">
+        <v>-1.94</v>
+      </c>
+      <c r="AG31">
+        <v>-1.32</v>
+      </c>
+      <c r="AH31">
+        <v>0.09</v>
+      </c>
+      <c r="AI31">
+        <v>1.19</v>
+      </c>
+      <c r="AJ31">
+        <v>3.15</v>
+      </c>
+      <c r="AK31">
+        <v>1.14</v>
+      </c>
+      <c r="AL31">
+        <v>2.87</v>
+      </c>
+      <c r="AM31">
+        <v>1.06</v>
+      </c>
+      <c r="AN31">
+        <v>4.16</v>
+      </c>
+      <c r="AO31">
+        <v>3.38</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC29">
-        <v>-8000000</v>
-      </c>
-      <c r="AD29">
-        <v>-13000000</v>
-      </c>
-      <c r="AE29">
-        <v>-14000000</v>
-      </c>
-      <c r="AF29">
-        <v>-13000000</v>
-      </c>
-      <c r="AG29">
-        <v>-2000000</v>
-      </c>
-      <c r="AH29">
-        <v>671000000</v>
-      </c>
-      <c r="AI29">
-        <v>-44000000</v>
-      </c>
-      <c r="AJ29">
-        <v>57000000</v>
-      </c>
-      <c r="AK29">
-        <v>1004000000</v>
-      </c>
-      <c r="AL29">
-        <v>62000000</v>
-      </c>
-      <c r="AM29">
-        <v>16000000</v>
-      </c>
-      <c r="AN29">
-        <v>130000000</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>2.3012</v>
+      </c>
+      <c r="C32">
+        <v>1.9618</v>
+      </c>
+      <c r="D32">
+        <v>2.4252</v>
+      </c>
+      <c r="E32">
+        <v>1.6269</v>
+      </c>
+      <c r="F32">
+        <v>1.1466</v>
+      </c>
+      <c r="G32">
+        <v>0.597</v>
+      </c>
+      <c r="H32">
+        <v>0.0423</v>
+      </c>
+      <c r="I32">
+        <v>1.0916</v>
+      </c>
+      <c r="J32">
+        <v>-0.06909999999999999</v>
+      </c>
+      <c r="K32">
+        <v>-0.6</v>
+      </c>
+      <c r="L32">
+        <v>-0.8623</v>
+      </c>
+      <c r="M32">
+        <v>-7.7829</v>
+      </c>
+      <c r="N32">
+        <v>-0.6108</v>
+      </c>
+      <c r="O32">
+        <v>-0.5488</v>
+      </c>
+      <c r="P32">
+        <v>0.1125</v>
+      </c>
+      <c r="Q32">
+        <v>0.2503</v>
+      </c>
+      <c r="R32">
+        <v>0.1066</v>
+      </c>
+      <c r="S32">
+        <v>0.0102</v>
+      </c>
+      <c r="T32">
+        <v>-0.2924</v>
+      </c>
+      <c r="U32">
+        <v>-0.21</v>
+      </c>
+      <c r="V32">
+        <v>-8.392099999999999</v>
+      </c>
+      <c r="W32">
+        <v>-1.8855</v>
+      </c>
+      <c r="X32">
+        <v>-1.3263</v>
+      </c>
+      <c r="Y32">
+        <v>-0.9429999999999999</v>
+      </c>
+      <c r="Z32">
+        <v>-15.7755</v>
+      </c>
+      <c r="AA32">
+        <v>-1.0121</v>
+      </c>
+      <c r="AB32">
+        <v>-1.1909</v>
+      </c>
+      <c r="AC32">
+        <v>-1.6278</v>
+      </c>
+      <c r="AD32">
+        <v>-6.41</v>
+      </c>
+      <c r="AE32">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="AF32">
+        <v>-1.94</v>
+      </c>
+      <c r="AG32">
+        <v>-1.32</v>
+      </c>
+      <c r="AH32">
+        <v>0.16</v>
+      </c>
+      <c r="AI32">
+        <v>1.18</v>
+      </c>
+      <c r="AJ32">
+        <v>2.96</v>
+      </c>
+      <c r="AK32">
+        <v>1.2</v>
+      </c>
+      <c r="AL32">
+        <v>2.73</v>
+      </c>
+      <c r="AM32">
+        <v>1.05</v>
+      </c>
+      <c r="AN32">
+        <v>4.11</v>
+      </c>
+      <c r="AO32">
+        <v>3.34</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>606000000</v>
-      </c>
-      <c r="C30">
-        <v>754000000</v>
-      </c>
-      <c r="D30">
-        <v>505000000</v>
-      </c>
-      <c r="E30">
-        <v>356000000</v>
-      </c>
-      <c r="F30">
-        <v>185000000</v>
-      </c>
-      <c r="G30">
-        <v>13000000</v>
-      </c>
-      <c r="H30">
-        <v>336000000</v>
-      </c>
-      <c r="I30">
-        <v>-27000000</v>
-      </c>
-      <c r="J30">
-        <v>-183000000</v>
-      </c>
-      <c r="K30">
-        <v>-263000000</v>
-      </c>
-      <c r="L30">
-        <v>-2366000000</v>
-      </c>
-      <c r="M30">
-        <v>-183000000</v>
-      </c>
-      <c r="N30">
-        <v>-166000000</v>
-      </c>
-      <c r="O30">
-        <v>34000000</v>
-      </c>
-      <c r="P30">
-        <v>75000000</v>
-      </c>
-      <c r="Q30">
-        <v>34000000</v>
-      </c>
-      <c r="R30">
-        <v>3000000</v>
-      </c>
-      <c r="S30">
-        <v>-87000000</v>
-      </c>
-      <c r="T30">
-        <v>-65000000</v>
-      </c>
-      <c r="U30">
-        <v>-2635000000</v>
-      </c>
-      <c r="V30">
-        <v>-593000000</v>
-      </c>
-      <c r="W30">
-        <v>-417000000</v>
-      </c>
-      <c r="X30">
-        <v>-296000000</v>
-      </c>
-      <c r="Y30">
-        <v>-4898000000</v>
-      </c>
-      <c r="Z30">
-        <v>-317000000</v>
-      </c>
-      <c r="AA30">
-        <v>-373000000</v>
-      </c>
-      <c r="AB30">
-        <v>-488000000</v>
-      </c>
-      <c r="AC30">
-        <v>-1799000000</v>
-      </c>
-      <c r="AD30">
-        <v>-252000000</v>
-      </c>
-      <c r="AE30">
-        <v>-567000000</v>
-      </c>
-      <c r="AF30">
-        <v>-389000000</v>
-      </c>
-      <c r="AG30">
-        <v>-7000000</v>
-      </c>
-      <c r="AH30">
-        <v>1030000000</v>
-      </c>
-      <c r="AI30">
-        <v>930000000</v>
-      </c>
-      <c r="AJ30">
-        <v>421000000</v>
-      </c>
-      <c r="AK30">
-        <v>1915000000</v>
-      </c>
-      <c r="AL30">
-        <v>418000000</v>
-      </c>
-      <c r="AM30">
-        <v>1616000000</v>
-      </c>
-      <c r="AN30">
-        <v>1273000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1.9701</v>
-      </c>
-      <c r="C31">
-        <v>2.4346</v>
-      </c>
-      <c r="D31">
-        <v>1.6348</v>
-      </c>
-      <c r="E31">
-        <v>1.1538</v>
-      </c>
-      <c r="F31">
-        <v>0.6005</v>
-      </c>
-      <c r="G31">
-        <v>0.0423</v>
-      </c>
-      <c r="H31">
-        <v>1.0988</v>
-      </c>
-      <c r="I31">
-        <v>-0.06909999999999999</v>
-      </c>
-      <c r="J31">
-        <v>-0.6</v>
-      </c>
-      <c r="K31">
-        <v>-0.8623</v>
-      </c>
-      <c r="L31">
-        <v>-7.7829</v>
-      </c>
-      <c r="M31">
-        <v>-0.6127</v>
-      </c>
-      <c r="N31">
-        <v>-0.5488</v>
-      </c>
-      <c r="O31">
-        <v>0.1125</v>
-      </c>
-      <c r="P31">
-        <v>0.2522</v>
-      </c>
-      <c r="Q31">
-        <v>0.1066</v>
-      </c>
-      <c r="R31">
-        <v>0.0102</v>
-      </c>
-      <c r="S31">
-        <v>-0.2924</v>
-      </c>
-      <c r="T31">
-        <v>-0.21</v>
-      </c>
-      <c r="U31">
-        <v>-8.392099999999999</v>
-      </c>
-      <c r="V31">
-        <v>-1.8855</v>
-      </c>
-      <c r="W31">
-        <v>-1.3263</v>
-      </c>
-      <c r="X31">
-        <v>-0.9429999999999999</v>
-      </c>
-      <c r="Y31">
-        <v>-15.7755</v>
-      </c>
-      <c r="Z31">
-        <v>-1.0121</v>
-      </c>
-      <c r="AA31">
-        <v>-1.1909</v>
-      </c>
-      <c r="AB31">
-        <v>-1.6278</v>
-      </c>
-      <c r="AC31">
-        <v>-6.41</v>
-      </c>
-      <c r="AD31">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="AE31">
-        <v>-1.94</v>
-      </c>
-      <c r="AF31">
-        <v>-1.32</v>
-      </c>
-      <c r="AG31">
-        <v>0.09</v>
-      </c>
-      <c r="AH31">
-        <v>1.19</v>
-      </c>
-      <c r="AI31">
-        <v>3.15</v>
-      </c>
-      <c r="AJ31">
-        <v>1.14</v>
-      </c>
-      <c r="AK31">
-        <v>2.87</v>
-      </c>
-      <c r="AL31">
-        <v>1.06</v>
-      </c>
-      <c r="AM31">
-        <v>4.16</v>
-      </c>
-      <c r="AN31">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1.9618</v>
-      </c>
-      <c r="C32">
-        <v>2.4252</v>
-      </c>
-      <c r="D32">
-        <v>1.6269</v>
-      </c>
-      <c r="E32">
-        <v>1.1466</v>
-      </c>
-      <c r="F32">
-        <v>0.597</v>
-      </c>
-      <c r="G32">
-        <v>0.0423</v>
-      </c>
-      <c r="H32">
-        <v>1.0916</v>
-      </c>
-      <c r="I32">
-        <v>-0.06909999999999999</v>
-      </c>
-      <c r="J32">
-        <v>-0.6</v>
-      </c>
-      <c r="K32">
-        <v>-0.8623</v>
-      </c>
-      <c r="L32">
-        <v>-7.7829</v>
-      </c>
-      <c r="M32">
-        <v>-0.6108</v>
-      </c>
-      <c r="N32">
-        <v>-0.5488</v>
-      </c>
-      <c r="O32">
-        <v>0.1125</v>
-      </c>
-      <c r="P32">
-        <v>0.2503</v>
-      </c>
-      <c r="Q32">
-        <v>0.1066</v>
-      </c>
-      <c r="R32">
-        <v>0.0102</v>
-      </c>
-      <c r="S32">
-        <v>-0.2924</v>
-      </c>
-      <c r="T32">
-        <v>-0.21</v>
-      </c>
-      <c r="U32">
-        <v>-8.392099999999999</v>
-      </c>
-      <c r="V32">
-        <v>-1.8855</v>
-      </c>
-      <c r="W32">
-        <v>-1.3263</v>
-      </c>
-      <c r="X32">
-        <v>-0.9429999999999999</v>
-      </c>
-      <c r="Y32">
-        <v>-15.7755</v>
-      </c>
-      <c r="Z32">
-        <v>-1.0121</v>
-      </c>
-      <c r="AA32">
-        <v>-1.1909</v>
-      </c>
-      <c r="AB32">
-        <v>-1.6278</v>
-      </c>
-      <c r="AC32">
-        <v>-6.41</v>
-      </c>
-      <c r="AD32">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="AE32">
-        <v>-1.94</v>
-      </c>
-      <c r="AF32">
-        <v>-1.32</v>
-      </c>
-      <c r="AG32">
-        <v>0.16</v>
-      </c>
-      <c r="AH32">
-        <v>1.18</v>
-      </c>
-      <c r="AI32">
-        <v>2.96</v>
-      </c>
-      <c r="AJ32">
-        <v>1.2</v>
-      </c>
-      <c r="AK32">
-        <v>2.73</v>
-      </c>
-      <c r="AL32">
-        <v>1.05</v>
-      </c>
-      <c r="AM32">
-        <v>4.11</v>
-      </c>
-      <c r="AN32">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD33">
         <v>-0.03</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-0.04</v>
-      </c>
-      <c r="AE33">
-        <v>-0.05</v>
       </c>
       <c r="AF33">
         <v>-0.05</v>
       </c>
       <c r="AG33">
+        <v>-0.05</v>
+      </c>
+      <c r="AH33">
         <v>-0.1366</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>2.13</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-0.1401</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.1767</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>3.0033</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.18</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.05</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.38</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD34">
         <v>-0.03</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-0.04</v>
-      </c>
-      <c r="AE34">
-        <v>-0.05</v>
       </c>
       <c r="AF34">
         <v>-0.05</v>
       </c>
       <c r="AG34">
+        <v>-0.05</v>
+      </c>
+      <c r="AH34">
         <v>-0.03</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>2.16</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-0.14</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>2.93</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.18</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.05</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.38</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>1.9701</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>2.4346</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.6348</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1.1538</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.6005</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.0423</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.0988</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.06909999999999999</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-0.6</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>-0.8623</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-7.7829</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-0.6127</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>-0.5488</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.1125</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.2522</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.1066</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.0102</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>-0.2924</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>-0.21</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-8.392099999999999</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-1.8855</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-1.3263</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>-0.9429999999999999</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>-15.7755</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>-1.0121</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>-1.1909</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>-1.6278</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>-6.3476</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>-0.8889</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>-1.9944</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>-1.3721</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.06519999999999999</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>3.4253</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>3.0029</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>1.3235</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>5.7764</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1.233</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>4.7515</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>3.7529</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>2.3012</v>
+      </c>
+      <c r="C36">
         <v>1.9618</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>2.4252</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.6269</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.1466</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.597</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.0423</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.0916</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-0.06909999999999999</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-0.6</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>-0.8623</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-7.7829</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-0.6108</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-0.5488</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.1125</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.2503</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.1066</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.0102</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>-0.2924</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>-0.21</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-8.392099999999999</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-1.8855</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-1.3263</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>-0.9429999999999999</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>-15.7755</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>-1.0121</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>-1.1909</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>-1.6278</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>-6.3476</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>-0.8889</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-1.9944</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>-1.3721</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0.07240000000000001</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>3.377</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>2.9608</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>1.305</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>5.7284</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1.2176</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>4.6977</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>3.7157</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>308900000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>310233000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>310400000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>310000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>309900000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>307500000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>307800000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>305100000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>305000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>304761000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>304000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>304109000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>302500000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>302200000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>299700000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>291500000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>297300000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>297500000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>309500000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>313600000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>314500000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>314400000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>313900000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>313300000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>313200000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>313178000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>299420000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>283200000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>283500000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>284300000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>283500000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>289000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>305000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>314100000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>322600000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>334300000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>343300000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>344000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>342600000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
-        <v>0.4701</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.5335</v>
+        <v>0.4525</v>
       </c>
       <c r="D38">
-        <v>0.4901</v>
+        <v>0.5542</v>
       </c>
       <c r="E38">
-        <v>0.482</v>
+        <v>0.4998</v>
       </c>
       <c r="F38">
-        <v>0.4428</v>
+        <v>0.4946</v>
       </c>
       <c r="G38">
+        <v>0.4504</v>
+      </c>
+      <c r="H38">
         <v>0.3992</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.5065</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.458</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.3895</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.4228</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>-1.2936</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.3632</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.3855</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.4461</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.4784</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.412</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.3895</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.3799</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.3993</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-1.2269</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-1.0517</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.3311</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.4083</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>-0.6641</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.286</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.1608</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.1198</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>-0.7791</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.3156</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.2093</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.2026</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.4544</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.54</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.4178</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.5578</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.2579</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.5342</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.5327</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.2841</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
-        <v>0.4241</v>
+        <v>0.41</v>
       </c>
       <c r="C39">
-        <v>0.505</v>
+        <v>0.4528</v>
       </c>
       <c r="D39">
-        <v>-0.0658</v>
+        <v>0.484</v>
       </c>
       <c r="E39">
-        <v>0.3987</v>
+        <v>-0.0649</v>
       </c>
       <c r="F39">
-        <v>0.3396</v>
+        <v>0.3907</v>
       </c>
       <c r="G39">
+        <v>0.3374</v>
+      </c>
+      <c r="H39">
         <v>0.4912</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.308</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.343</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.1156</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.3159</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.3251</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.1683</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.2924</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.3978</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.1488</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.5238</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.2314</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.2714</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.1511</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.2511</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0535</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.1373</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>0.2783</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.25</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.2776</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>0.1552</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>-0.0604</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>0.4261</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.167</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>0.3307</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>0.2813</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>0.42</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>0.4937</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0.3192</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>0.4332</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>0.6532</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>0.461</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>0.4063</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>0.1341</v>
       </c>
     </row>
